--- a/bd/dataInmobiliarias.xlsx
+++ b/bd/dataInmobiliarias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greg2\Documents\FacturacionAutomatica\bd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greg2\Documents\FacturacionAutomatica\palomma-facturas-automaticas\bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9088A1-B1CA-4FC4-A12B-E9815B082AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B904F3-85F4-47DA-A522-4C567BC0D6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{56EB2426-051C-4CD5-9CE3-24047527D5A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{56EB2426-051C-4CD5-9CE3-24047527D5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="datosInmobiliarias" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="74">
   <si>
     <t>Nombre</t>
   </si>
@@ -255,13 +255,19 @@
   </si>
   <si>
     <t>arrendamientosenvigado</t>
+  </si>
+  <si>
+    <t>nazaret</t>
+  </si>
+  <si>
+    <t>WPP postpago</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +296,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -311,11 +324,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1128,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118BFA0C-4805-4B18-8419-7EDD5ECF5129}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="152" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="160" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1139,9 +1153,10 @@
     <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1154,8 +1169,11 @@
       <c r="D1" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
@@ -1168,8 +1186,11 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>52</v>
       </c>
@@ -1182,8 +1203,11 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
@@ -1196,8 +1220,11 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>54</v>
       </c>
@@ -1210,8 +1237,11 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
@@ -1224,8 +1254,11 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -1238,8 +1271,11 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
@@ -1252,8 +1288,11 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>58</v>
       </c>
@@ -1266,8 +1305,11 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>59</v>
       </c>
@@ -1280,8 +1322,11 @@
       <c r="D10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>60</v>
       </c>
@@ -1294,8 +1339,11 @@
       <c r="D11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>61</v>
       </c>
@@ -1308,130 +1356,177 @@
       <c r="D12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="2">
+        <v>9003522792</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>9007723176</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15">
+        <v>901838418</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="2">
         <v>900336513</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="2">
-        <v>9018384180</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>901422313</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
         <v>901537693</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="2">
         <v>63342052</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="2">
         <v>901230303</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B21" s="2">
         <v>900431358</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="C21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B22" s="2">
         <v>43601577</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
         <v>11</v>
       </c>
     </row>
